--- a/src/main/resources/dataSources/LoginTest_TestFail.xlsx
+++ b/src/main/resources/dataSources/LoginTest_TestFail.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
